--- a/Test Plan/Test_Case_4.5.3_system.xlsx
+++ b/Test Plan/Test_Case_4.5.3_system.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\khensu\Home02\rwiseman\Desktop\ECE411\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7485"/>
   </bookViews>
@@ -185,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -208,72 +213,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -283,9 +230,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -293,17 +237,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -314,6 +264,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -362,7 +315,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,7 +350,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -609,14 +562,14 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection sqref="A1:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
     <col min="4" max="4" width="4.85546875" customWidth="1"/>
     <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
@@ -624,313 +577,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="14"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="16"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="2">
         <v>5</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="2">
         <v>6</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="2">
         <v>7</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="2">
         <v>8</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="2">
         <v>9</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="2">
         <v>10</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="2">
         <v>11</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
@@ -938,12 +886,17 @@
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
